--- a/IDPASS.xlsx
+++ b/IDPASS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T3046\Documents\01_AUTO_ROUTINE\zanngyou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T3046\Documents\01_AUTO_ROUTINE\Zanngyou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65824540-5D01-46B4-BBEB-169392AE0CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6FC34B-AB44-4195-958C-B9D98060E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-12615" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-12810" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -392,6 +392,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>3046</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">

--- a/IDPASS.xlsx
+++ b/IDPASS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T3046\Documents\01_AUTO_ROUTINE\Zanngyou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T3046\Documents\01_AUTO_ROUTINE\zanngyou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6FC34B-AB44-4195-958C-B9D98060E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65824540-5D01-46B4-BBEB-169392AE0CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-12810" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-12615" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -392,9 +392,6 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>3046</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
